--- a/Data/CSV/Course Learning Outcomes (Technical Skills) V2.xlsx
+++ b/Data/CSV/Course Learning Outcomes (Technical Skills) V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jin\Desktop\IS480 FYP\ChickenDinner\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jin\Desktop\IS480 FYP\ChickenDinner\Data\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3582048D-FE36-4AA3-870F-5D9689D6984D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03F17D4-19B9-463C-8450-7BFA8091F213}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8295" tabRatio="634" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5580" tabRatio="634" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skills &amp; Competencies" sheetId="2" r:id="rId1"/>
@@ -4417,30 +4417,30 @@
   </sheetPr>
   <dimension ref="A1:EB65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="J65" sqref="A65:J65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="80" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" style="80" customWidth="1"/>
     <col min="2" max="2" width="12" style="109" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" style="22" customWidth="1"/>
     <col min="7" max="7" width="20" style="22" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="22" customWidth="1"/>
-    <col min="9" max="13" width="18.28515625" style="22" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" style="22" customWidth="1"/>
-    <col min="15" max="20" width="18.28515625" style="22" customWidth="1"/>
-    <col min="21" max="25" width="23.5703125" style="22" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="24.140625" style="22" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="19.28515625" style="22" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.7109375" style="22"/>
+    <col min="8" max="8" width="21.6640625" style="22" customWidth="1"/>
+    <col min="9" max="13" width="18.33203125" style="22" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" style="22" customWidth="1"/>
+    <col min="15" max="20" width="18.33203125" style="22" customWidth="1"/>
+    <col min="21" max="25" width="23.5546875" style="22" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="24.109375" style="22" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="19.33203125" style="22" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.6640625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="124" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="124" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="125" t="s">
         <v>774</v>
       </c>
@@ -4473,7 +4473,7 @@
       <c r="AB1" s="22"/>
       <c r="AC1" s="22"/>
     </row>
-    <row r="2" spans="1:29" s="21" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" s="21" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="78" t="s">
         <v>136</v>
       </c>
@@ -4556,7 +4556,7 @@
       <c r="AB2" s="38"/>
       <c r="AC2" s="38"/>
     </row>
-    <row r="3" spans="1:29" s="25" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="25" customFormat="1" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="178" t="s">
         <v>121</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="179"/>
       <c r="B4" s="91" t="s">
         <v>306</v>
@@ -4673,7 +4673,7 @@
       <c r="AB4" s="25"/>
       <c r="AC4" s="25"/>
     </row>
-    <row r="5" spans="1:29" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="179"/>
       <c r="B5" s="92" t="s">
         <v>307</v>
@@ -4703,7 +4703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="179"/>
       <c r="B6" s="92" t="s">
         <v>308</v>
@@ -4757,7 +4757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="25" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" s="25" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="179"/>
       <c r="B7" s="92" t="s">
         <v>310</v>
@@ -4808,7 +4808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" s="25" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="179"/>
       <c r="B8" s="92" t="s">
         <v>320</v>
@@ -4865,7 +4865,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="179"/>
       <c r="B9" s="92" t="s">
         <v>311</v>
@@ -4916,7 +4916,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="179"/>
       <c r="B10" s="92" t="s">
         <v>312</v>
@@ -4961,7 +4961,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" s="25" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="179"/>
       <c r="B11" s="92" t="s">
         <v>313</v>
@@ -5024,7 +5024,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="179"/>
       <c r="B12" s="92" t="s">
         <v>305</v>
@@ -5083,7 +5083,7 @@
       <c r="AB12" s="25"/>
       <c r="AC12" s="25"/>
     </row>
-    <row r="13" spans="1:29" s="26" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" s="26" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="180"/>
       <c r="B13" s="120" t="s">
         <v>321</v>
@@ -5154,7 +5154,7 @@
       <c r="AB13" s="25"/>
       <c r="AC13" s="25"/>
     </row>
-    <row r="14" spans="1:29" s="76" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" s="76" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="181" t="s">
         <v>115</v>
       </c>
@@ -5233,7 +5233,7 @@
       <c r="AB14" s="27"/>
       <c r="AC14" s="27"/>
     </row>
-    <row r="15" spans="1:29" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" s="27" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="182"/>
       <c r="B15" s="94" t="s">
         <v>246</v>
@@ -5299,7 +5299,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" s="27" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="182"/>
       <c r="B16" s="94" t="s">
         <v>248</v>
@@ -5365,7 +5365,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="81" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" s="81" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="182"/>
       <c r="B17" s="95" t="s">
         <v>253</v>
@@ -5438,7 +5438,7 @@
       <c r="AB17" s="27"/>
       <c r="AC17" s="27"/>
     </row>
-    <row r="18" spans="1:29" s="75" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" s="75" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="183"/>
       <c r="B18" s="114" t="s">
         <v>251</v>
@@ -5493,7 +5493,7 @@
       <c r="AB18" s="74"/>
       <c r="AC18" s="74"/>
     </row>
-    <row r="19" spans="1:29" s="82" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" s="82" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="187" t="s">
         <v>741</v>
       </c>
@@ -5564,7 +5564,7 @@
       <c r="AB19" s="28"/>
       <c r="AC19" s="28"/>
     </row>
-    <row r="20" spans="1:29" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" s="28" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="188"/>
       <c r="B20" s="97" t="s">
         <v>256</v>
@@ -5633,7 +5633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:29" s="28" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" s="28" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="188"/>
       <c r="B21" s="97" t="s">
         <v>422</v>
@@ -5678,7 +5678,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="83" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" s="83" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="188"/>
       <c r="B22" s="98" t="s">
         <v>258</v>
@@ -5723,7 +5723,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:29" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="188"/>
       <c r="B23" s="98" t="s">
         <v>260</v>
@@ -5763,7 +5763,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="24" spans="1:29" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" s="28" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="188"/>
       <c r="B24" s="97" t="s">
         <v>263</v>
@@ -5823,7 +5823,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:29" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="188"/>
       <c r="B25" s="97" t="s">
         <v>265</v>
@@ -5876,7 +5876,7 @@
       <c r="AB25" s="28"/>
       <c r="AC25" s="28"/>
     </row>
-    <row r="26" spans="1:29" s="84" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" s="84" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="188"/>
       <c r="B26" s="99" t="s">
         <v>267</v>
@@ -5937,7 +5937,7 @@
       <c r="AB26" s="28"/>
       <c r="AC26" s="28"/>
     </row>
-    <row r="27" spans="1:29" s="131" customFormat="1" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" s="131" customFormat="1" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="189"/>
       <c r="B27" s="129" t="s">
         <v>632</v>
@@ -5992,7 +5992,7 @@
       <c r="AB27" s="28"/>
       <c r="AC27" s="28"/>
     </row>
-    <row r="28" spans="1:29" s="77" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" s="77" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="190" t="s">
         <v>117</v>
       </c>
@@ -6055,7 +6055,7 @@
       <c r="AB28" s="32"/>
       <c r="AC28" s="32"/>
     </row>
-    <row r="29" spans="1:29" s="32" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" s="32" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="191"/>
       <c r="B29" s="101" t="s">
         <v>271</v>
@@ -6133,7 +6133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:29" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="191"/>
       <c r="B30" s="102" t="s">
         <v>273</v>
@@ -6184,7 +6184,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:29" s="132" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" s="132" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="191"/>
       <c r="B31" s="102" t="s">
         <v>275</v>
@@ -6223,7 +6223,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="32" spans="1:29" s="133" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" s="133" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="191"/>
       <c r="B32" s="102" t="s">
         <v>277</v>
@@ -6304,7 +6304,7 @@
       <c r="AB32" s="32"/>
       <c r="AC32" s="32"/>
     </row>
-    <row r="33" spans="1:132" s="133" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:132" s="133" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="191"/>
       <c r="B33" s="134" t="s">
         <v>279</v>
@@ -6379,7 +6379,7 @@
       <c r="AB33" s="32"/>
       <c r="AC33" s="32"/>
     </row>
-    <row r="34" spans="1:132" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:132" s="32" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="191"/>
       <c r="B34" s="102" t="s">
         <v>635</v>
@@ -6418,7 +6418,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:132" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:132" s="113" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="192"/>
       <c r="B35" s="112" t="s">
         <v>637</v>
@@ -6455,7 +6455,7 @@
       <c r="AB35" s="111"/>
       <c r="AC35" s="111"/>
     </row>
-    <row r="36" spans="1:132" s="86" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:132" s="86" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="184" t="s">
         <v>118</v>
       </c>
@@ -6514,7 +6514,7 @@
       <c r="AB36" s="110"/>
       <c r="AC36" s="110"/>
     </row>
-    <row r="37" spans="1:132" s="87" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:132" s="87" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="185"/>
       <c r="B37" s="104" t="s">
         <v>285</v>
@@ -6568,7 +6568,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:132" s="116" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:132" s="116" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="185"/>
       <c r="B38" s="115"/>
       <c r="C38" s="116" t="s">
@@ -6578,7 +6578,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="39" spans="1:132" s="137" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:132" s="137" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="185"/>
       <c r="B39" s="135" t="s">
         <v>260</v>
@@ -6620,7 +6620,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="40" spans="1:132" s="142" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:132" s="142" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="185"/>
       <c r="B40" s="141" t="s">
         <v>279</v>
@@ -6695,7 +6695,7 @@
       <c r="AB40" s="139"/>
       <c r="AC40" s="139"/>
     </row>
-    <row r="41" spans="1:132" s="137" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:132" s="137" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="185"/>
       <c r="B41" s="143" t="s">
         <v>289</v>
@@ -6737,7 +6737,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="42" spans="1:132" s="145" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:132" s="145" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="186"/>
       <c r="B42" s="144" t="s">
         <v>267</v>
@@ -6788,7 +6788,7 @@
       <c r="AB42" s="139"/>
       <c r="AC42" s="139"/>
     </row>
-    <row r="43" spans="1:132" s="122" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:132" s="122" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="193" t="s">
         <v>119</v>
       </c>
@@ -6847,7 +6847,7 @@
       <c r="EA43" s="151"/>
       <c r="EB43" s="152"/>
     </row>
-    <row r="44" spans="1:132" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:132" s="36" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="194"/>
       <c r="B44" s="153" t="s">
         <v>291</v>
@@ -6897,7 +6897,7 @@
       <c r="EA44" s="154"/>
       <c r="EB44" s="155"/>
     </row>
-    <row r="45" spans="1:132" s="157" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:132" s="157" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="194"/>
       <c r="B45" s="153" t="s">
         <v>293</v>
@@ -7055,7 +7055,7 @@
       <c r="EA45" s="154"/>
       <c r="EB45" s="156"/>
     </row>
-    <row r="46" spans="1:132" s="159" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:132" s="159" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="194"/>
       <c r="B46" s="153" t="s">
         <v>295</v>
@@ -7223,7 +7223,7 @@
       <c r="EA46" s="154"/>
       <c r="EB46" s="158"/>
     </row>
-    <row r="47" spans="1:132" s="163" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:132" s="163" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="195"/>
       <c r="B47" s="160" t="s">
         <v>640</v>
@@ -7373,7 +7373,7 @@
       <c r="EA47" s="161"/>
       <c r="EB47" s="162"/>
     </row>
-    <row r="48" spans="1:132" s="165" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:132" s="165" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="175" t="s">
         <v>120</v>
       </c>
@@ -7428,7 +7428,7 @@
       <c r="AB48" s="148"/>
       <c r="AC48" s="148"/>
     </row>
-    <row r="49" spans="1:29" s="149" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" s="149" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="176"/>
       <c r="B49" s="166" t="s">
         <v>287</v>
@@ -7475,7 +7475,7 @@
       <c r="AB49" s="35"/>
       <c r="AC49" s="35"/>
     </row>
-    <row r="50" spans="1:29" s="35" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" s="35" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="176"/>
       <c r="B50" s="146" t="s">
         <v>630</v>
@@ -7514,21 +7514,21 @@
         <v>675</v>
       </c>
     </row>
-    <row r="51" spans="1:29" s="85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" s="85" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="176"/>
       <c r="B51" s="105"/>
       <c r="C51" s="85" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:29" s="85" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" s="85" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="176"/>
       <c r="B52" s="105"/>
       <c r="C52" s="85" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:29" s="88" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" s="88" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="176"/>
       <c r="B53" s="105"/>
       <c r="C53" s="85" t="s">
@@ -7561,7 +7561,7 @@
       <c r="AB53" s="85"/>
       <c r="AC53" s="85"/>
     </row>
-    <row r="54" spans="1:29" s="89" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29" s="89" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="177"/>
       <c r="B54" s="106"/>
       <c r="C54" s="85" t="s">
@@ -7594,7 +7594,7 @@
       <c r="AB54" s="85"/>
       <c r="AC54" s="85"/>
     </row>
-    <row r="55" spans="1:29" s="122" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" s="122" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="172" t="s">
         <v>333</v>
       </c>
@@ -7679,7 +7679,7 @@
       <c r="AB55" s="36"/>
       <c r="AC55" s="36"/>
     </row>
-    <row r="56" spans="1:29" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" s="36" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="173"/>
       <c r="B56" s="108" t="s">
         <v>303</v>
@@ -7721,7 +7721,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:29" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" s="36" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="173"/>
       <c r="B57" s="108" t="s">
         <v>316</v>
@@ -7769,7 +7769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:29" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" s="36" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="173"/>
       <c r="B58" s="108" t="s">
         <v>322</v>
@@ -7820,7 +7820,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:29" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" s="36" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="173"/>
       <c r="B59" s="108" t="s">
         <v>314</v>
@@ -7865,7 +7865,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:29" s="168" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" s="168" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="173"/>
       <c r="B60" s="167" t="s">
         <v>318</v>
@@ -7904,7 +7904,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="61" spans="1:29" s="168" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" s="168" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="173"/>
       <c r="B61" s="167" t="s">
         <v>325</v>
@@ -7913,7 +7913,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="62" spans="1:29" s="168" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" s="168" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="173"/>
       <c r="B62" s="167" t="s">
         <v>327</v>
@@ -7950,7 +7950,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="63" spans="1:29" s="168" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" s="168" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="173"/>
       <c r="B63" s="167" t="s">
         <v>329</v>
@@ -7959,7 +7959,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="64" spans="1:29" s="171" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29" s="171" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="174"/>
       <c r="B64" s="170" t="s">
         <v>331</v>
@@ -8010,7 +8010,7 @@
       <c r="AB64" s="168"/>
       <c r="AC64" s="168"/>
     </row>
-    <row r="65" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="79"/>
       <c r="B65" s="107"/>
       <c r="C65" s="22"/>
@@ -8084,14 +8084,14 @@
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="43.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>98</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="199" t="s">
         <v>80</v>
       </c>
@@ -8110,31 +8110,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="200"/>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="200"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="200"/>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="200"/>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="200"/>
       <c r="B7" s="4" t="s">
         <v>5</v>
@@ -8143,19 +8143,19 @@
         <v>552</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="200"/>
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="201"/>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="202" t="s">
         <v>81</v>
       </c>
@@ -8163,13 +8163,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="203"/>
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="203"/>
       <c r="B12" s="6" t="s">
         <v>10</v>
@@ -8178,91 +8178,91 @@
         <v>552</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="203"/>
       <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="203"/>
       <c r="B14" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="203"/>
       <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="203"/>
       <c r="B16" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="203"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="203"/>
       <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="203"/>
       <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="203"/>
       <c r="B20" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="203"/>
       <c r="B21" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="203"/>
       <c r="B22" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="203"/>
       <c r="B23" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="203"/>
       <c r="B24" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="203"/>
       <c r="B25" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="204"/>
       <c r="B26" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="205" t="s">
         <v>82</v>
       </c>
@@ -8270,91 +8270,91 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="206"/>
       <c r="B28" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="206"/>
       <c r="B29" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="206"/>
       <c r="B30" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="206"/>
       <c r="B31" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="206"/>
       <c r="B32" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="206"/>
       <c r="B33" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="206"/>
       <c r="B34" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="206"/>
       <c r="B35" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="206"/>
       <c r="B36" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="206"/>
       <c r="B37" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="206"/>
       <c r="B38" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="206"/>
       <c r="B39" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="206"/>
       <c r="B40" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="207"/>
       <c r="B41" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="208" t="s">
         <v>83</v>
       </c>
@@ -8362,13 +8362,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="209"/>
       <c r="B43" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="210" t="s">
         <v>84</v>
       </c>
@@ -8376,73 +8376,73 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="210"/>
       <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="210"/>
       <c r="B46" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="210"/>
       <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="210"/>
       <c r="B48" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="210"/>
       <c r="B49" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="210"/>
       <c r="B50" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="210"/>
       <c r="B51" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="210"/>
       <c r="B52" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="210"/>
       <c r="B53" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="210"/>
       <c r="B54" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="210"/>
       <c r="B55" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="211" t="s">
         <v>85</v>
       </c>
@@ -8450,25 +8450,25 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="212"/>
       <c r="B57" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="212"/>
       <c r="B58" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="213"/>
       <c r="B59" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="196" t="s">
         <v>86</v>
       </c>
@@ -8476,13 +8476,13 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="197"/>
       <c r="B61" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="197"/>
       <c r="B62" s="15" t="s">
         <v>60</v>
@@ -8491,7 +8491,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="197"/>
       <c r="B63" s="15" t="s">
         <v>61</v>
@@ -8500,109 +8500,109 @@
         <v>552</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="197"/>
       <c r="B64" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="197"/>
       <c r="B65" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="197"/>
       <c r="B66" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="197"/>
       <c r="B67" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="197"/>
       <c r="B68" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="197"/>
       <c r="B69" s="15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="197"/>
       <c r="B70" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="197"/>
       <c r="B71" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="197"/>
       <c r="B72" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="197"/>
       <c r="B73" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="197"/>
       <c r="B74" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="197"/>
       <c r="B75" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="197"/>
       <c r="B76" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="197"/>
       <c r="B77" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="197"/>
       <c r="B78" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="197"/>
       <c r="B79" s="15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="197"/>
       <c r="B80" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="198"/>
       <c r="B81" s="16" t="s">
         <v>79</v>
@@ -8631,18 +8631,18 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" style="22" customWidth="1"/>
     <col min="2" max="2" width="12" style="37" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="22" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" customWidth="1"/>
-    <col min="6" max="6" width="54.5703125" customWidth="1"/>
-    <col min="7" max="7" width="56.140625" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="22" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5546875" customWidth="1"/>
+    <col min="6" max="6" width="54.5546875" customWidth="1"/>
+    <col min="7" max="7" width="56.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>136</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="217" t="s">
         <v>121</v>
       </c>
@@ -8686,7 +8686,7 @@
       </c>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="217"/>
       <c r="B3" s="42" t="s">
         <v>306</v>
@@ -8705,7 +8705,7 @@
       </c>
       <c r="G3" s="41"/>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="217"/>
       <c r="B4" s="40" t="s">
         <v>307</v>
@@ -8720,7 +8720,7 @@
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="217"/>
       <c r="B5" s="46" t="s">
         <v>308</v>
@@ -8741,7 +8741,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="217"/>
       <c r="B6" s="40" t="s">
         <v>310</v>
@@ -8762,7 +8762,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="217"/>
       <c r="B7" s="46" t="s">
         <v>320</v>
@@ -8781,7 +8781,7 @@
       </c>
       <c r="G7" s="41"/>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="217"/>
       <c r="B8" s="40" t="s">
         <v>311</v>
@@ -8800,7 +8800,7 @@
       </c>
       <c r="G8" s="41"/>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="217"/>
       <c r="B9" s="46" t="s">
         <v>312</v>
@@ -8819,7 +8819,7 @@
       </c>
       <c r="G9" s="41"/>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="217"/>
       <c r="B10" s="40" t="s">
         <v>313</v>
@@ -8838,7 +8838,7 @@
       </c>
       <c r="G10" s="41"/>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="217"/>
       <c r="B11" s="46" t="s">
         <v>305</v>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="G11" s="41"/>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="217"/>
       <c r="B12" s="40" t="s">
         <v>321</v>
@@ -8876,7 +8876,7 @@
       </c>
       <c r="G12" s="41"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="218" t="s">
         <v>115</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="219"/>
       <c r="B14" s="48" t="s">
         <v>246</v>
@@ -8920,7 +8920,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="219"/>
       <c r="B15" s="49" t="s">
         <v>248</v>
@@ -8941,7 +8941,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="219"/>
       <c r="B16" s="48" t="s">
         <v>253</v>
@@ -8960,7 +8960,7 @@
       </c>
       <c r="G16" s="41"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="219"/>
       <c r="B17" s="50" t="s">
         <v>251</v>
@@ -8977,7 +8977,7 @@
       </c>
       <c r="G17" s="41"/>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="220" t="s">
         <v>116</v>
       </c>
@@ -8998,7 +8998,7 @@
       </c>
       <c r="G18" s="41"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="215"/>
       <c r="B19" s="52" t="s">
         <v>256</v>
@@ -9017,7 +9017,7 @@
       </c>
       <c r="G19" s="41"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="215"/>
       <c r="B20" s="48" t="s">
         <v>422</v>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="G20" s="41"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="215"/>
       <c r="B21" s="53" t="s">
         <v>258</v>
@@ -9055,7 +9055,7 @@
       </c>
       <c r="G21" s="41"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="215"/>
       <c r="B22" s="52" t="s">
         <v>260</v>
@@ -9074,7 +9074,7 @@
       </c>
       <c r="G22" s="41"/>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="215"/>
       <c r="B23" s="54" t="s">
         <v>263</v>
@@ -9093,7 +9093,7 @@
       </c>
       <c r="G23" s="41"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="215"/>
       <c r="B24" s="52" t="s">
         <v>265</v>
@@ -9108,7 +9108,7 @@
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="215"/>
       <c r="B25" s="54" t="s">
         <v>267</v>
@@ -9123,7 +9123,7 @@
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="221" t="s">
         <v>117</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="215"/>
       <c r="B27" s="54" t="s">
         <v>271</v>
@@ -9167,7 +9167,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="215"/>
       <c r="B28" s="56" t="s">
         <v>273</v>
@@ -9188,7 +9188,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="215"/>
       <c r="B29" s="54" t="s">
         <v>275</v>
@@ -9209,7 +9209,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="215"/>
       <c r="B30" s="56" t="s">
         <v>277</v>
@@ -9230,7 +9230,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="215"/>
       <c r="B31" s="54" t="s">
         <v>279</v>
@@ -9251,7 +9251,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="222" t="s">
         <v>118</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="222"/>
       <c r="B33" s="53" t="s">
         <v>285</v>
@@ -9293,7 +9293,7 @@
       </c>
       <c r="G33" s="41"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="223"/>
       <c r="B34" s="59"/>
       <c r="C34" s="33" t="s">
@@ -9304,7 +9304,7 @@
       <c r="F34" s="41"/>
       <c r="G34" s="41"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="223"/>
       <c r="B35" s="59" t="s">
         <v>281</v>
@@ -9317,7 +9317,7 @@
       <c r="F35" s="41"/>
       <c r="G35" s="41"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="223"/>
       <c r="B36" s="59"/>
       <c r="C36" s="33" t="s">
@@ -9332,7 +9332,7 @@
       </c>
       <c r="G36" s="41"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="224" t="s">
         <v>119</v>
       </c>
@@ -9353,7 +9353,7 @@
       </c>
       <c r="G37" s="41"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="225"/>
       <c r="B38" s="60" t="s">
         <v>291</v>
@@ -9372,7 +9372,7 @@
       </c>
       <c r="G38" s="41"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="225"/>
       <c r="B39" s="48" t="s">
         <v>293</v>
@@ -9391,7 +9391,7 @@
       </c>
       <c r="G39" s="41"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="225"/>
       <c r="B40" s="60" t="s">
         <v>295</v>
@@ -9410,7 +9410,7 @@
       </c>
       <c r="G40" s="41"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="214" t="s">
         <v>120</v>
       </c>
@@ -9427,7 +9427,7 @@
       </c>
       <c r="G41" s="41"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="215"/>
       <c r="B42" s="62" t="s">
         <v>287</v>
@@ -9446,7 +9446,7 @@
       </c>
       <c r="G42" s="41"/>
     </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="215"/>
       <c r="B43" s="50"/>
       <c r="C43" s="33" t="s">
@@ -9461,7 +9461,7 @@
       </c>
       <c r="G43" s="41"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="215"/>
       <c r="B44" s="50"/>
       <c r="C44" s="33" t="s">
@@ -9478,7 +9478,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="215"/>
       <c r="B45" s="50"/>
       <c r="C45" s="33" t="s">
@@ -9493,7 +9493,7 @@
       </c>
       <c r="G45" s="41"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="215"/>
       <c r="B46" s="50"/>
       <c r="C46" s="33" t="s">
@@ -9508,7 +9508,7 @@
       </c>
       <c r="G46" s="41"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="216" t="s">
         <v>333</v>
       </c>
@@ -9525,7 +9525,7 @@
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="216"/>
       <c r="B48" s="63" t="s">
         <v>303</v>
@@ -9540,7 +9540,7 @@
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="216"/>
       <c r="B49" s="37" t="s">
         <v>316</v>
@@ -9555,7 +9555,7 @@
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="216"/>
       <c r="B50" s="63" t="s">
         <v>322</v>
@@ -9570,7 +9570,7 @@
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="216"/>
       <c r="B51" s="37" t="s">
         <v>314</v>
@@ -9585,7 +9585,7 @@
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="216"/>
       <c r="B52" s="64" t="s">
         <v>318</v>
@@ -9598,7 +9598,7 @@
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="216"/>
       <c r="B53" s="64" t="s">
         <v>325</v>
@@ -9611,7 +9611,7 @@
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
     </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="216"/>
       <c r="B54" s="64" t="s">
         <v>327</v>
@@ -9624,7 +9624,7 @@
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="216"/>
       <c r="B55" s="64" t="s">
         <v>329</v>
@@ -9637,7 +9637,7 @@
       <c r="F55" s="41"/>
       <c r="G55" s="41"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="216"/>
       <c r="B56" s="64" t="s">
         <v>331</v>
@@ -9650,2622 +9650,2622 @@
       <c r="F56" s="41"/>
       <c r="G56" s="41"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E57" s="41"/>
       <c r="F57" s="41"/>
       <c r="G57" s="41"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E58" s="41"/>
       <c r="F58" s="41"/>
       <c r="G58" s="41"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E59" s="41"/>
       <c r="F59" s="41"/>
       <c r="G59" s="41"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E60" s="41"/>
       <c r="F60" s="41"/>
       <c r="G60" s="41"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E61" s="41"/>
       <c r="F61" s="41"/>
       <c r="G61" s="41"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E62" s="41"/>
       <c r="F62" s="41"/>
       <c r="G62" s="41"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E63" s="41"/>
       <c r="F63" s="41"/>
       <c r="G63" s="41"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E64" s="41"/>
       <c r="F64" s="41"/>
       <c r="G64" s="41"/>
     </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E65" s="41"/>
       <c r="F65" s="41"/>
       <c r="G65" s="41"/>
     </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E66" s="41"/>
       <c r="F66" s="41"/>
       <c r="G66" s="41"/>
     </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E67" s="41"/>
       <c r="F67" s="41"/>
       <c r="G67" s="41"/>
     </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E68" s="41"/>
       <c r="F68" s="41"/>
       <c r="G68" s="41"/>
     </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E69" s="41"/>
       <c r="F69" s="41"/>
       <c r="G69" s="41"/>
     </row>
-    <row r="70" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E70" s="41"/>
       <c r="F70" s="41"/>
       <c r="G70" s="41"/>
     </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E71" s="41"/>
       <c r="F71" s="41"/>
       <c r="G71" s="41"/>
     </row>
-    <row r="72" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E72" s="41"/>
       <c r="F72" s="41"/>
       <c r="G72" s="41"/>
     </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E73" s="41"/>
       <c r="F73" s="41"/>
       <c r="G73" s="41"/>
     </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E74" s="41"/>
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
     </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E75" s="41"/>
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
     </row>
-    <row r="76" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E76" s="41"/>
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
     </row>
-    <row r="77" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E77" s="41"/>
       <c r="F77" s="41"/>
       <c r="G77" s="41"/>
     </row>
-    <row r="78" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E78" s="41"/>
       <c r="F78" s="41"/>
       <c r="G78" s="41"/>
     </row>
-    <row r="79" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E79" s="41"/>
       <c r="F79" s="41"/>
       <c r="G79" s="41"/>
     </row>
-    <row r="80" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E80" s="41"/>
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
     </row>
-    <row r="81" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E81" s="41"/>
       <c r="F81" s="41"/>
       <c r="G81" s="41"/>
     </row>
-    <row r="82" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E82" s="41"/>
       <c r="F82" s="41"/>
       <c r="G82" s="41"/>
     </row>
-    <row r="83" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E83" s="41"/>
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
     </row>
-    <row r="84" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E84" s="41"/>
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
     </row>
-    <row r="85" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E85" s="41"/>
       <c r="F85" s="41"/>
       <c r="G85" s="41"/>
     </row>
-    <row r="86" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E86" s="41"/>
       <c r="F86" s="41"/>
       <c r="G86" s="41"/>
     </row>
-    <row r="87" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E87" s="41"/>
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
     </row>
-    <row r="88" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E88" s="41"/>
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
     </row>
-    <row r="89" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E89" s="41"/>
       <c r="F89" s="41"/>
       <c r="G89" s="41"/>
     </row>
-    <row r="90" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E90" s="41"/>
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
     </row>
-    <row r="91" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E91" s="41"/>
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
     </row>
-    <row r="92" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E92" s="41"/>
       <c r="F92" s="41"/>
       <c r="G92" s="41"/>
     </row>
-    <row r="93" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E93" s="41"/>
       <c r="F93" s="41"/>
       <c r="G93" s="41"/>
     </row>
-    <row r="94" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E94" s="41"/>
       <c r="F94" s="41"/>
       <c r="G94" s="41"/>
     </row>
-    <row r="95" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E95" s="41"/>
       <c r="F95" s="41"/>
       <c r="G95" s="41"/>
     </row>
-    <row r="96" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E96" s="41"/>
       <c r="F96" s="41"/>
       <c r="G96" s="41"/>
     </row>
-    <row r="97" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E97" s="41"/>
       <c r="F97" s="41"/>
       <c r="G97" s="41"/>
     </row>
-    <row r="98" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E98" s="41"/>
       <c r="F98" s="41"/>
       <c r="G98" s="41"/>
     </row>
-    <row r="99" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E99" s="41"/>
       <c r="F99" s="41"/>
       <c r="G99" s="41"/>
     </row>
-    <row r="100" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E100" s="41"/>
       <c r="F100" s="41"/>
       <c r="G100" s="41"/>
     </row>
-    <row r="101" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E101" s="41"/>
       <c r="F101" s="41"/>
       <c r="G101" s="41"/>
     </row>
-    <row r="102" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E102" s="41"/>
       <c r="F102" s="41"/>
       <c r="G102" s="41"/>
     </row>
-    <row r="103" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E103" s="41"/>
       <c r="F103" s="41"/>
       <c r="G103" s="41"/>
     </row>
-    <row r="104" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E104" s="41"/>
       <c r="F104" s="41"/>
       <c r="G104" s="41"/>
     </row>
-    <row r="105" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E105" s="41"/>
       <c r="F105" s="41"/>
       <c r="G105" s="41"/>
     </row>
-    <row r="106" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E106" s="41"/>
       <c r="F106" s="41"/>
       <c r="G106" s="41"/>
     </row>
-    <row r="107" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E107" s="41"/>
       <c r="F107" s="41"/>
       <c r="G107" s="41"/>
     </row>
-    <row r="108" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E108" s="41"/>
       <c r="F108" s="41"/>
       <c r="G108" s="41"/>
     </row>
-    <row r="109" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E109" s="41"/>
       <c r="F109" s="41"/>
       <c r="G109" s="41"/>
     </row>
-    <row r="110" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E110" s="41"/>
       <c r="F110" s="41"/>
       <c r="G110" s="41"/>
     </row>
-    <row r="111" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E111" s="41"/>
       <c r="F111" s="41"/>
       <c r="G111" s="41"/>
     </row>
-    <row r="112" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E112" s="41"/>
       <c r="F112" s="41"/>
       <c r="G112" s="41"/>
     </row>
-    <row r="113" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E113" s="41"/>
       <c r="F113" s="41"/>
       <c r="G113" s="41"/>
     </row>
-    <row r="114" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E114" s="41"/>
       <c r="F114" s="41"/>
       <c r="G114" s="41"/>
     </row>
-    <row r="115" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E115" s="41"/>
       <c r="F115" s="41"/>
       <c r="G115" s="41"/>
     </row>
-    <row r="116" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E116" s="41"/>
       <c r="F116" s="41"/>
       <c r="G116" s="41"/>
     </row>
-    <row r="117" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E117" s="41"/>
       <c r="F117" s="41"/>
       <c r="G117" s="41"/>
     </row>
-    <row r="118" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E118" s="41"/>
       <c r="F118" s="41"/>
       <c r="G118" s="41"/>
     </row>
-    <row r="119" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E119" s="41"/>
       <c r="F119" s="41"/>
       <c r="G119" s="41"/>
     </row>
-    <row r="120" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E120" s="41"/>
       <c r="F120" s="41"/>
       <c r="G120" s="41"/>
     </row>
-    <row r="121" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E121" s="41"/>
       <c r="F121" s="41"/>
       <c r="G121" s="41"/>
     </row>
-    <row r="122" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E122" s="41"/>
       <c r="F122" s="41"/>
       <c r="G122" s="41"/>
     </row>
-    <row r="123" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E123" s="41"/>
       <c r="F123" s="41"/>
       <c r="G123" s="41"/>
     </row>
-    <row r="124" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E124" s="41"/>
       <c r="F124" s="41"/>
       <c r="G124" s="41"/>
     </row>
-    <row r="125" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E125" s="41"/>
       <c r="F125" s="41"/>
       <c r="G125" s="41"/>
     </row>
-    <row r="126" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E126" s="41"/>
       <c r="F126" s="41"/>
       <c r="G126" s="41"/>
     </row>
-    <row r="127" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E127" s="41"/>
       <c r="F127" s="41"/>
       <c r="G127" s="41"/>
     </row>
-    <row r="128" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E128" s="41"/>
       <c r="F128" s="41"/>
       <c r="G128" s="41"/>
     </row>
-    <row r="129" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E129" s="41"/>
       <c r="F129" s="41"/>
       <c r="G129" s="41"/>
     </row>
-    <row r="130" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E130" s="41"/>
       <c r="F130" s="41"/>
       <c r="G130" s="41"/>
     </row>
-    <row r="131" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E131" s="41"/>
       <c r="F131" s="41"/>
       <c r="G131" s="41"/>
     </row>
-    <row r="132" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E132" s="41"/>
       <c r="F132" s="41"/>
       <c r="G132" s="41"/>
     </row>
-    <row r="133" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E133" s="41"/>
       <c r="F133" s="41"/>
       <c r="G133" s="41"/>
     </row>
-    <row r="134" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E134" s="41"/>
       <c r="F134" s="41"/>
       <c r="G134" s="41"/>
     </row>
-    <row r="135" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E135" s="41"/>
       <c r="F135" s="41"/>
       <c r="G135" s="41"/>
     </row>
-    <row r="136" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E136" s="41"/>
       <c r="F136" s="41"/>
       <c r="G136" s="41"/>
     </row>
-    <row r="137" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E137" s="41"/>
       <c r="F137" s="41"/>
       <c r="G137" s="41"/>
     </row>
-    <row r="138" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E138" s="41"/>
       <c r="F138" s="41"/>
       <c r="G138" s="41"/>
     </row>
-    <row r="139" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E139" s="41"/>
       <c r="F139" s="41"/>
       <c r="G139" s="41"/>
     </row>
-    <row r="140" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E140" s="41"/>
       <c r="F140" s="41"/>
       <c r="G140" s="41"/>
     </row>
-    <row r="141" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E141" s="41"/>
       <c r="F141" s="41"/>
       <c r="G141" s="41"/>
     </row>
-    <row r="142" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E142" s="41"/>
       <c r="F142" s="41"/>
       <c r="G142" s="41"/>
     </row>
-    <row r="143" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E143" s="41"/>
       <c r="F143" s="41"/>
       <c r="G143" s="41"/>
     </row>
-    <row r="144" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E144" s="41"/>
       <c r="F144" s="41"/>
       <c r="G144" s="41"/>
     </row>
-    <row r="145" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E145" s="41"/>
       <c r="F145" s="41"/>
       <c r="G145" s="41"/>
     </row>
-    <row r="146" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E146" s="41"/>
       <c r="F146" s="41"/>
       <c r="G146" s="41"/>
     </row>
-    <row r="147" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E147" s="41"/>
       <c r="F147" s="41"/>
       <c r="G147" s="41"/>
     </row>
-    <row r="148" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E148" s="41"/>
       <c r="F148" s="41"/>
       <c r="G148" s="41"/>
     </row>
-    <row r="149" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E149" s="41"/>
       <c r="F149" s="41"/>
       <c r="G149" s="41"/>
     </row>
-    <row r="150" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E150" s="41"/>
       <c r="F150" s="41"/>
       <c r="G150" s="41"/>
     </row>
-    <row r="151" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E151" s="41"/>
       <c r="F151" s="41"/>
       <c r="G151" s="41"/>
     </row>
-    <row r="152" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E152" s="41"/>
       <c r="F152" s="41"/>
       <c r="G152" s="41"/>
     </row>
-    <row r="153" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E153" s="41"/>
       <c r="F153" s="41"/>
       <c r="G153" s="41"/>
     </row>
-    <row r="154" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E154" s="41"/>
       <c r="F154" s="41"/>
       <c r="G154" s="41"/>
     </row>
-    <row r="155" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E155" s="41"/>
       <c r="F155" s="41"/>
       <c r="G155" s="41"/>
     </row>
-    <row r="156" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E156" s="41"/>
       <c r="F156" s="41"/>
       <c r="G156" s="41"/>
     </row>
-    <row r="157" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E157" s="41"/>
       <c r="F157" s="41"/>
       <c r="G157" s="41"/>
     </row>
-    <row r="158" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E158" s="41"/>
       <c r="F158" s="41"/>
       <c r="G158" s="41"/>
     </row>
-    <row r="159" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E159" s="41"/>
       <c r="F159" s="41"/>
       <c r="G159" s="41"/>
     </row>
-    <row r="160" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E160" s="41"/>
       <c r="F160" s="41"/>
       <c r="G160" s="41"/>
     </row>
-    <row r="161" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E161" s="41"/>
       <c r="F161" s="41"/>
       <c r="G161" s="41"/>
     </row>
-    <row r="162" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E162" s="41"/>
       <c r="F162" s="41"/>
       <c r="G162" s="41"/>
     </row>
-    <row r="163" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E163" s="41"/>
       <c r="F163" s="41"/>
       <c r="G163" s="41"/>
     </row>
-    <row r="164" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E164" s="41"/>
       <c r="F164" s="41"/>
       <c r="G164" s="41"/>
     </row>
-    <row r="165" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E165" s="41"/>
       <c r="F165" s="41"/>
       <c r="G165" s="41"/>
     </row>
-    <row r="166" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E166" s="41"/>
       <c r="F166" s="41"/>
       <c r="G166" s="41"/>
     </row>
-    <row r="167" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E167" s="41"/>
       <c r="F167" s="41"/>
       <c r="G167" s="41"/>
     </row>
-    <row r="168" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E168" s="41"/>
       <c r="F168" s="41"/>
       <c r="G168" s="41"/>
     </row>
-    <row r="169" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E169" s="41"/>
       <c r="F169" s="41"/>
       <c r="G169" s="41"/>
     </row>
-    <row r="170" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E170" s="41"/>
       <c r="F170" s="41"/>
       <c r="G170" s="41"/>
     </row>
-    <row r="171" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E171" s="41"/>
       <c r="F171" s="41"/>
       <c r="G171" s="41"/>
     </row>
-    <row r="172" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E172" s="41"/>
       <c r="F172" s="41"/>
       <c r="G172" s="41"/>
     </row>
-    <row r="173" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E173" s="41"/>
       <c r="F173" s="41"/>
       <c r="G173" s="41"/>
     </row>
-    <row r="174" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E174" s="41"/>
       <c r="F174" s="41"/>
       <c r="G174" s="41"/>
     </row>
-    <row r="175" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E175" s="41"/>
       <c r="F175" s="41"/>
       <c r="G175" s="41"/>
     </row>
-    <row r="176" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E176" s="41"/>
       <c r="F176" s="41"/>
       <c r="G176" s="41"/>
     </row>
-    <row r="177" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E177" s="41"/>
       <c r="F177" s="41"/>
       <c r="G177" s="41"/>
     </row>
-    <row r="178" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E178" s="41"/>
       <c r="F178" s="41"/>
       <c r="G178" s="41"/>
     </row>
-    <row r="179" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E179" s="41"/>
       <c r="F179" s="41"/>
       <c r="G179" s="41"/>
     </row>
-    <row r="180" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E180" s="41"/>
       <c r="F180" s="41"/>
       <c r="G180" s="41"/>
     </row>
-    <row r="181" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E181" s="41"/>
       <c r="F181" s="41"/>
       <c r="G181" s="41"/>
     </row>
-    <row r="182" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E182" s="41"/>
       <c r="F182" s="41"/>
       <c r="G182" s="41"/>
     </row>
-    <row r="183" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E183" s="41"/>
       <c r="F183" s="41"/>
       <c r="G183" s="41"/>
     </row>
-    <row r="184" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E184" s="41"/>
       <c r="F184" s="41"/>
       <c r="G184" s="41"/>
     </row>
-    <row r="185" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E185" s="41"/>
       <c r="F185" s="41"/>
       <c r="G185" s="41"/>
     </row>
-    <row r="186" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E186" s="41"/>
       <c r="F186" s="41"/>
       <c r="G186" s="41"/>
     </row>
-    <row r="187" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E187" s="41"/>
       <c r="F187" s="41"/>
       <c r="G187" s="41"/>
     </row>
-    <row r="188" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E188" s="41"/>
       <c r="F188" s="41"/>
       <c r="G188" s="41"/>
     </row>
-    <row r="189" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E189" s="41"/>
       <c r="F189" s="41"/>
       <c r="G189" s="41"/>
     </row>
-    <row r="190" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E190" s="41"/>
       <c r="F190" s="41"/>
       <c r="G190" s="41"/>
     </row>
-    <row r="191" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E191" s="41"/>
       <c r="F191" s="41"/>
       <c r="G191" s="41"/>
     </row>
-    <row r="192" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E192" s="41"/>
       <c r="F192" s="41"/>
       <c r="G192" s="41"/>
     </row>
-    <row r="193" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E193" s="41"/>
       <c r="F193" s="41"/>
       <c r="G193" s="41"/>
     </row>
-    <row r="194" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E194" s="41"/>
       <c r="F194" s="41"/>
       <c r="G194" s="41"/>
     </row>
-    <row r="195" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E195" s="41"/>
       <c r="F195" s="41"/>
       <c r="G195" s="41"/>
     </row>
-    <row r="196" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E196" s="41"/>
       <c r="F196" s="41"/>
       <c r="G196" s="41"/>
     </row>
-    <row r="197" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E197" s="41"/>
       <c r="F197" s="41"/>
       <c r="G197" s="41"/>
     </row>
-    <row r="198" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E198" s="41"/>
       <c r="F198" s="41"/>
       <c r="G198" s="41"/>
     </row>
-    <row r="199" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E199" s="41"/>
       <c r="F199" s="41"/>
       <c r="G199" s="41"/>
     </row>
-    <row r="200" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E200" s="41"/>
       <c r="F200" s="41"/>
       <c r="G200" s="41"/>
     </row>
-    <row r="201" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E201" s="41"/>
       <c r="F201" s="41"/>
       <c r="G201" s="41"/>
     </row>
-    <row r="202" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E202" s="41"/>
       <c r="F202" s="41"/>
       <c r="G202" s="41"/>
     </row>
-    <row r="203" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E203" s="41"/>
       <c r="F203" s="41"/>
       <c r="G203" s="41"/>
     </row>
-    <row r="204" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E204" s="41"/>
       <c r="F204" s="41"/>
       <c r="G204" s="41"/>
     </row>
-    <row r="205" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E205" s="41"/>
       <c r="F205" s="41"/>
       <c r="G205" s="41"/>
     </row>
-    <row r="206" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E206" s="41"/>
       <c r="F206" s="41"/>
       <c r="G206" s="41"/>
     </row>
-    <row r="207" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E207" s="41"/>
       <c r="F207" s="41"/>
       <c r="G207" s="41"/>
     </row>
-    <row r="208" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E208" s="41"/>
       <c r="F208" s="41"/>
       <c r="G208" s="41"/>
     </row>
-    <row r="209" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E209" s="41"/>
       <c r="F209" s="41"/>
       <c r="G209" s="41"/>
     </row>
-    <row r="210" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E210" s="41"/>
       <c r="F210" s="41"/>
       <c r="G210" s="41"/>
     </row>
-    <row r="211" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E211" s="41"/>
       <c r="F211" s="41"/>
       <c r="G211" s="41"/>
     </row>
-    <row r="212" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E212" s="41"/>
       <c r="F212" s="41"/>
       <c r="G212" s="41"/>
     </row>
-    <row r="213" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E213" s="41"/>
       <c r="F213" s="41"/>
       <c r="G213" s="41"/>
     </row>
-    <row r="214" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E214" s="41"/>
       <c r="F214" s="41"/>
       <c r="G214" s="41"/>
     </row>
-    <row r="215" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E215" s="41"/>
       <c r="F215" s="41"/>
       <c r="G215" s="41"/>
     </row>
-    <row r="216" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E216" s="41"/>
       <c r="F216" s="41"/>
       <c r="G216" s="41"/>
     </row>
-    <row r="217" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E217" s="41"/>
       <c r="F217" s="41"/>
       <c r="G217" s="41"/>
     </row>
-    <row r="218" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E218" s="41"/>
       <c r="F218" s="41"/>
       <c r="G218" s="41"/>
     </row>
-    <row r="219" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E219" s="41"/>
       <c r="F219" s="41"/>
       <c r="G219" s="41"/>
     </row>
-    <row r="220" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E220" s="41"/>
       <c r="F220" s="41"/>
       <c r="G220" s="41"/>
     </row>
-    <row r="221" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E221" s="41"/>
       <c r="F221" s="41"/>
       <c r="G221" s="41"/>
     </row>
-    <row r="222" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E222" s="41"/>
       <c r="F222" s="41"/>
       <c r="G222" s="41"/>
     </row>
-    <row r="223" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E223" s="41"/>
       <c r="F223" s="41"/>
       <c r="G223" s="41"/>
     </row>
-    <row r="224" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E224" s="41"/>
       <c r="F224" s="41"/>
       <c r="G224" s="41"/>
     </row>
-    <row r="225" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E225" s="41"/>
       <c r="F225" s="41"/>
       <c r="G225" s="41"/>
     </row>
-    <row r="226" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E226" s="41"/>
       <c r="F226" s="41"/>
       <c r="G226" s="41"/>
     </row>
-    <row r="227" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E227" s="41"/>
       <c r="F227" s="41"/>
       <c r="G227" s="41"/>
     </row>
-    <row r="228" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E228" s="41"/>
       <c r="F228" s="41"/>
       <c r="G228" s="41"/>
     </row>
-    <row r="229" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E229" s="41"/>
       <c r="F229" s="41"/>
       <c r="G229" s="41"/>
     </row>
-    <row r="230" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E230" s="41"/>
       <c r="F230" s="41"/>
       <c r="G230" s="41"/>
     </row>
-    <row r="231" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E231" s="41"/>
       <c r="F231" s="41"/>
       <c r="G231" s="41"/>
     </row>
-    <row r="232" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E232" s="41"/>
       <c r="F232" s="41"/>
       <c r="G232" s="41"/>
     </row>
-    <row r="233" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E233" s="41"/>
       <c r="F233" s="41"/>
       <c r="G233" s="41"/>
     </row>
-    <row r="234" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E234" s="41"/>
       <c r="F234" s="41"/>
       <c r="G234" s="41"/>
     </row>
-    <row r="235" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E235" s="41"/>
       <c r="F235" s="41"/>
       <c r="G235" s="41"/>
     </row>
-    <row r="236" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E236" s="41"/>
       <c r="F236" s="41"/>
       <c r="G236" s="41"/>
     </row>
-    <row r="237" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E237" s="41"/>
       <c r="F237" s="41"/>
       <c r="G237" s="41"/>
     </row>
-    <row r="238" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E238" s="41"/>
       <c r="F238" s="41"/>
       <c r="G238" s="41"/>
     </row>
-    <row r="239" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E239" s="41"/>
       <c r="F239" s="41"/>
       <c r="G239" s="41"/>
     </row>
-    <row r="240" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E240" s="41"/>
       <c r="F240" s="41"/>
       <c r="G240" s="41"/>
     </row>
-    <row r="241" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E241" s="41"/>
       <c r="F241" s="41"/>
       <c r="G241" s="41"/>
     </row>
-    <row r="242" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E242" s="41"/>
       <c r="F242" s="41"/>
       <c r="G242" s="41"/>
     </row>
-    <row r="243" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E243" s="41"/>
       <c r="F243" s="41"/>
       <c r="G243" s="41"/>
     </row>
-    <row r="244" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E244" s="41"/>
       <c r="F244" s="41"/>
       <c r="G244" s="41"/>
     </row>
-    <row r="245" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E245" s="41"/>
       <c r="F245" s="41"/>
       <c r="G245" s="41"/>
     </row>
-    <row r="246" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E246" s="41"/>
       <c r="F246" s="41"/>
       <c r="G246" s="41"/>
     </row>
-    <row r="247" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E247" s="41"/>
       <c r="F247" s="41"/>
       <c r="G247" s="41"/>
     </row>
-    <row r="248" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E248" s="41"/>
       <c r="F248" s="41"/>
       <c r="G248" s="41"/>
     </row>
-    <row r="249" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E249" s="41"/>
       <c r="F249" s="41"/>
       <c r="G249" s="41"/>
     </row>
-    <row r="250" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E250" s="41"/>
       <c r="F250" s="41"/>
       <c r="G250" s="41"/>
     </row>
-    <row r="251" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E251" s="41"/>
       <c r="F251" s="41"/>
       <c r="G251" s="41"/>
     </row>
-    <row r="252" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E252" s="41"/>
       <c r="F252" s="41"/>
       <c r="G252" s="41"/>
     </row>
-    <row r="253" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E253" s="41"/>
       <c r="F253" s="41"/>
       <c r="G253" s="41"/>
     </row>
-    <row r="254" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E254" s="41"/>
       <c r="F254" s="41"/>
       <c r="G254" s="41"/>
     </row>
-    <row r="255" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E255" s="41"/>
       <c r="F255" s="41"/>
       <c r="G255" s="41"/>
     </row>
-    <row r="256" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E256" s="41"/>
       <c r="F256" s="41"/>
       <c r="G256" s="41"/>
     </row>
-    <row r="257" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E257" s="41"/>
       <c r="F257" s="41"/>
       <c r="G257" s="41"/>
     </row>
-    <row r="258" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E258" s="41"/>
       <c r="F258" s="41"/>
       <c r="G258" s="41"/>
     </row>
-    <row r="259" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E259" s="41"/>
       <c r="F259" s="41"/>
       <c r="G259" s="41"/>
     </row>
-    <row r="260" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E260" s="41"/>
       <c r="F260" s="41"/>
       <c r="G260" s="41"/>
     </row>
-    <row r="261" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E261" s="41"/>
       <c r="F261" s="41"/>
       <c r="G261" s="41"/>
     </row>
-    <row r="262" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E262" s="41"/>
       <c r="F262" s="41"/>
       <c r="G262" s="41"/>
     </row>
-    <row r="263" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E263" s="41"/>
       <c r="F263" s="41"/>
       <c r="G263" s="41"/>
     </row>
-    <row r="264" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E264" s="41"/>
       <c r="F264" s="41"/>
       <c r="G264" s="41"/>
     </row>
-    <row r="265" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E265" s="41"/>
       <c r="F265" s="41"/>
       <c r="G265" s="41"/>
     </row>
-    <row r="266" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E266" s="41"/>
       <c r="F266" s="41"/>
       <c r="G266" s="41"/>
     </row>
-    <row r="267" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E267" s="41"/>
       <c r="F267" s="41"/>
       <c r="G267" s="41"/>
     </row>
-    <row r="268" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E268" s="41"/>
       <c r="F268" s="41"/>
       <c r="G268" s="41"/>
     </row>
-    <row r="269" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E269" s="41"/>
       <c r="F269" s="41"/>
       <c r="G269" s="41"/>
     </row>
-    <row r="270" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E270" s="41"/>
       <c r="F270" s="41"/>
       <c r="G270" s="41"/>
     </row>
-    <row r="271" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E271" s="41"/>
       <c r="F271" s="41"/>
       <c r="G271" s="41"/>
     </row>
-    <row r="272" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E272" s="41"/>
       <c r="F272" s="41"/>
       <c r="G272" s="41"/>
     </row>
-    <row r="273" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E273" s="41"/>
       <c r="F273" s="41"/>
       <c r="G273" s="41"/>
     </row>
-    <row r="274" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E274" s="41"/>
       <c r="F274" s="41"/>
       <c r="G274" s="41"/>
     </row>
-    <row r="275" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E275" s="41"/>
       <c r="F275" s="41"/>
       <c r="G275" s="41"/>
     </row>
-    <row r="276" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E276" s="41"/>
       <c r="F276" s="41"/>
       <c r="G276" s="41"/>
     </row>
-    <row r="277" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E277" s="41"/>
       <c r="F277" s="41"/>
       <c r="G277" s="41"/>
     </row>
-    <row r="278" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E278" s="41"/>
       <c r="F278" s="41"/>
       <c r="G278" s="41"/>
     </row>
-    <row r="279" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E279" s="41"/>
       <c r="F279" s="41"/>
       <c r="G279" s="41"/>
     </row>
-    <row r="280" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E280" s="41"/>
       <c r="F280" s="41"/>
       <c r="G280" s="41"/>
     </row>
-    <row r="281" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E281" s="41"/>
       <c r="F281" s="41"/>
       <c r="G281" s="41"/>
     </row>
-    <row r="282" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E282" s="41"/>
       <c r="F282" s="41"/>
       <c r="G282" s="41"/>
     </row>
-    <row r="283" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E283" s="41"/>
       <c r="F283" s="41"/>
       <c r="G283" s="41"/>
     </row>
-    <row r="284" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E284" s="41"/>
       <c r="F284" s="41"/>
       <c r="G284" s="41"/>
     </row>
-    <row r="285" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E285" s="41"/>
       <c r="F285" s="41"/>
       <c r="G285" s="41"/>
     </row>
-    <row r="286" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E286" s="41"/>
       <c r="F286" s="41"/>
       <c r="G286" s="41"/>
     </row>
-    <row r="287" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E287" s="41"/>
       <c r="F287" s="41"/>
       <c r="G287" s="41"/>
     </row>
-    <row r="288" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E288" s="41"/>
       <c r="F288" s="41"/>
       <c r="G288" s="41"/>
     </row>
-    <row r="289" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E289" s="41"/>
       <c r="F289" s="41"/>
       <c r="G289" s="41"/>
     </row>
-    <row r="290" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E290" s="41"/>
       <c r="F290" s="41"/>
       <c r="G290" s="41"/>
     </row>
-    <row r="291" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E291" s="41"/>
       <c r="F291" s="41"/>
       <c r="G291" s="41"/>
     </row>
-    <row r="292" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E292" s="41"/>
       <c r="F292" s="41"/>
       <c r="G292" s="41"/>
     </row>
-    <row r="293" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E293" s="41"/>
       <c r="F293" s="41"/>
       <c r="G293" s="41"/>
     </row>
-    <row r="294" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E294" s="41"/>
       <c r="F294" s="41"/>
       <c r="G294" s="41"/>
     </row>
-    <row r="295" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E295" s="41"/>
       <c r="F295" s="41"/>
       <c r="G295" s="41"/>
     </row>
-    <row r="296" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E296" s="41"/>
       <c r="F296" s="41"/>
       <c r="G296" s="41"/>
     </row>
-    <row r="297" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E297" s="41"/>
       <c r="F297" s="41"/>
       <c r="G297" s="41"/>
     </row>
-    <row r="298" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E298" s="41"/>
       <c r="F298" s="41"/>
       <c r="G298" s="41"/>
     </row>
-    <row r="299" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E299" s="41"/>
       <c r="F299" s="41"/>
       <c r="G299" s="41"/>
     </row>
-    <row r="300" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E300" s="41"/>
       <c r="F300" s="41"/>
       <c r="G300" s="41"/>
     </row>
-    <row r="301" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E301" s="41"/>
       <c r="F301" s="41"/>
       <c r="G301" s="41"/>
     </row>
-    <row r="302" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E302" s="41"/>
       <c r="F302" s="41"/>
       <c r="G302" s="41"/>
     </row>
-    <row r="303" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E303" s="41"/>
       <c r="F303" s="41"/>
       <c r="G303" s="41"/>
     </row>
-    <row r="304" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E304" s="41"/>
       <c r="F304" s="41"/>
       <c r="G304" s="41"/>
     </row>
-    <row r="305" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E305" s="41"/>
       <c r="F305" s="41"/>
       <c r="G305" s="41"/>
     </row>
-    <row r="306" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E306" s="41"/>
       <c r="F306" s="41"/>
       <c r="G306" s="41"/>
     </row>
-    <row r="307" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E307" s="41"/>
       <c r="F307" s="41"/>
       <c r="G307" s="41"/>
     </row>
-    <row r="308" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E308" s="41"/>
       <c r="F308" s="41"/>
       <c r="G308" s="41"/>
     </row>
-    <row r="309" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E309" s="41"/>
       <c r="F309" s="41"/>
       <c r="G309" s="41"/>
     </row>
-    <row r="310" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E310" s="41"/>
       <c r="F310" s="41"/>
       <c r="G310" s="41"/>
     </row>
-    <row r="311" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E311" s="41"/>
       <c r="F311" s="41"/>
       <c r="G311" s="41"/>
     </row>
-    <row r="312" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E312" s="41"/>
       <c r="F312" s="41"/>
       <c r="G312" s="41"/>
     </row>
-    <row r="313" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E313" s="41"/>
       <c r="F313" s="41"/>
       <c r="G313" s="41"/>
     </row>
-    <row r="314" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E314" s="41"/>
       <c r="F314" s="41"/>
       <c r="G314" s="41"/>
     </row>
-    <row r="315" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E315" s="41"/>
       <c r="F315" s="41"/>
       <c r="G315" s="41"/>
     </row>
-    <row r="316" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E316" s="41"/>
       <c r="F316" s="41"/>
       <c r="G316" s="41"/>
     </row>
-    <row r="317" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E317" s="41"/>
       <c r="F317" s="41"/>
       <c r="G317" s="41"/>
     </row>
-    <row r="318" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E318" s="41"/>
       <c r="F318" s="41"/>
       <c r="G318" s="41"/>
     </row>
-    <row r="319" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E319" s="41"/>
       <c r="F319" s="41"/>
       <c r="G319" s="41"/>
     </row>
-    <row r="320" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E320" s="41"/>
       <c r="F320" s="41"/>
       <c r="G320" s="41"/>
     </row>
-    <row r="321" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E321" s="41"/>
       <c r="F321" s="41"/>
       <c r="G321" s="41"/>
     </row>
-    <row r="322" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E322" s="41"/>
       <c r="F322" s="41"/>
       <c r="G322" s="41"/>
     </row>
-    <row r="323" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E323" s="41"/>
       <c r="F323" s="41"/>
       <c r="G323" s="41"/>
     </row>
-    <row r="324" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E324" s="41"/>
       <c r="F324" s="41"/>
       <c r="G324" s="41"/>
     </row>
-    <row r="325" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E325" s="41"/>
       <c r="F325" s="41"/>
       <c r="G325" s="41"/>
     </row>
-    <row r="326" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E326" s="41"/>
       <c r="F326" s="41"/>
       <c r="G326" s="41"/>
     </row>
-    <row r="327" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E327" s="41"/>
       <c r="F327" s="41"/>
       <c r="G327" s="41"/>
     </row>
-    <row r="328" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E328" s="41"/>
       <c r="F328" s="41"/>
       <c r="G328" s="41"/>
     </row>
-    <row r="329" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E329" s="41"/>
       <c r="F329" s="41"/>
       <c r="G329" s="41"/>
     </row>
-    <row r="330" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E330" s="41"/>
       <c r="F330" s="41"/>
       <c r="G330" s="41"/>
     </row>
-    <row r="331" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E331" s="41"/>
       <c r="F331" s="41"/>
       <c r="G331" s="41"/>
     </row>
-    <row r="332" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E332" s="41"/>
       <c r="F332" s="41"/>
       <c r="G332" s="41"/>
     </row>
-    <row r="333" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E333" s="41"/>
       <c r="F333" s="41"/>
       <c r="G333" s="41"/>
     </row>
-    <row r="334" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E334" s="41"/>
       <c r="F334" s="41"/>
       <c r="G334" s="41"/>
     </row>
-    <row r="335" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E335" s="41"/>
       <c r="F335" s="41"/>
       <c r="G335" s="41"/>
     </row>
-    <row r="336" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E336" s="41"/>
       <c r="F336" s="41"/>
       <c r="G336" s="41"/>
     </row>
-    <row r="337" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E337" s="41"/>
       <c r="F337" s="41"/>
       <c r="G337" s="41"/>
     </row>
-    <row r="338" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E338" s="41"/>
       <c r="F338" s="41"/>
       <c r="G338" s="41"/>
     </row>
-    <row r="339" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E339" s="41"/>
       <c r="F339" s="41"/>
       <c r="G339" s="41"/>
     </row>
-    <row r="340" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E340" s="41"/>
       <c r="F340" s="41"/>
       <c r="G340" s="41"/>
     </row>
-    <row r="341" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E341" s="41"/>
       <c r="F341" s="41"/>
       <c r="G341" s="41"/>
     </row>
-    <row r="342" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E342" s="41"/>
       <c r="F342" s="41"/>
       <c r="G342" s="41"/>
     </row>
-    <row r="343" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E343" s="41"/>
       <c r="F343" s="41"/>
       <c r="G343" s="41"/>
     </row>
-    <row r="344" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E344" s="41"/>
       <c r="F344" s="41"/>
       <c r="G344" s="41"/>
     </row>
-    <row r="345" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E345" s="41"/>
       <c r="F345" s="41"/>
       <c r="G345" s="41"/>
     </row>
-    <row r="346" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E346" s="41"/>
       <c r="F346" s="41"/>
       <c r="G346" s="41"/>
     </row>
-    <row r="347" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E347" s="41"/>
       <c r="F347" s="41"/>
       <c r="G347" s="41"/>
     </row>
-    <row r="348" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E348" s="41"/>
       <c r="F348" s="41"/>
     </row>
-    <row r="349" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E349" s="41"/>
       <c r="F349" s="41"/>
     </row>
-    <row r="350" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E350" s="41"/>
       <c r="F350" s="41"/>
     </row>
-    <row r="351" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E351" s="41"/>
       <c r="F351" s="41"/>
     </row>
-    <row r="352" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E352" s="41"/>
       <c r="F352" s="41"/>
     </row>
-    <row r="353" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E353" s="41"/>
       <c r="F353" s="41"/>
     </row>
-    <row r="354" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E354" s="41"/>
       <c r="F354" s="41"/>
     </row>
-    <row r="355" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E355" s="41"/>
       <c r="F355" s="41"/>
     </row>
-    <row r="356" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E356" s="41"/>
       <c r="F356" s="41"/>
     </row>
-    <row r="357" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E357" s="41"/>
       <c r="F357" s="41"/>
     </row>
-    <row r="358" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E358" s="41"/>
       <c r="F358" s="41"/>
     </row>
-    <row r="359" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E359" s="41"/>
       <c r="F359" s="41"/>
     </row>
-    <row r="360" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E360" s="41"/>
       <c r="F360" s="41"/>
     </row>
-    <row r="361" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E361" s="41"/>
       <c r="F361" s="41"/>
     </row>
-    <row r="362" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E362" s="41"/>
       <c r="F362" s="41"/>
     </row>
-    <row r="363" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E363" s="41"/>
       <c r="F363" s="41"/>
     </row>
-    <row r="364" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E364" s="41"/>
       <c r="F364" s="41"/>
     </row>
-    <row r="365" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E365" s="41"/>
       <c r="F365" s="41"/>
     </row>
-    <row r="366" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E366" s="41"/>
       <c r="F366" s="41"/>
     </row>
-    <row r="367" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E367" s="41"/>
       <c r="F367" s="41"/>
     </row>
-    <row r="368" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E368" s="41"/>
       <c r="F368" s="41"/>
     </row>
-    <row r="369" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E369" s="41"/>
       <c r="F369" s="41"/>
     </row>
-    <row r="370" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E370" s="41"/>
       <c r="F370" s="41"/>
     </row>
-    <row r="371" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E371" s="41"/>
       <c r="F371" s="41"/>
     </row>
-    <row r="372" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E372" s="41"/>
       <c r="F372" s="41"/>
     </row>
-    <row r="373" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E373" s="41"/>
       <c r="F373" s="41"/>
     </row>
-    <row r="374" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E374" s="41"/>
       <c r="F374" s="41"/>
     </row>
-    <row r="375" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E375" s="41"/>
       <c r="F375" s="41"/>
     </row>
-    <row r="376" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E376" s="41"/>
       <c r="F376" s="41"/>
     </row>
-    <row r="377" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E377" s="41"/>
       <c r="F377" s="41"/>
     </row>
-    <row r="378" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E378" s="41"/>
       <c r="F378" s="41"/>
     </row>
-    <row r="379" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E379" s="41"/>
       <c r="F379" s="41"/>
     </row>
-    <row r="380" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E380" s="41"/>
       <c r="F380" s="41"/>
     </row>
-    <row r="381" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E381" s="41"/>
       <c r="F381" s="41"/>
     </row>
-    <row r="382" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E382" s="41"/>
       <c r="F382" s="41"/>
     </row>
-    <row r="383" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E383" s="41"/>
       <c r="F383" s="41"/>
     </row>
-    <row r="384" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E384" s="41"/>
       <c r="F384" s="41"/>
     </row>
-    <row r="385" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E385" s="41"/>
       <c r="F385" s="41"/>
     </row>
-    <row r="386" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E386" s="41"/>
       <c r="F386" s="41"/>
     </row>
-    <row r="387" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E387" s="41"/>
       <c r="F387" s="41"/>
     </row>
-    <row r="388" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E388" s="41"/>
       <c r="F388" s="41"/>
     </row>
-    <row r="389" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E389" s="41"/>
       <c r="F389" s="41"/>
     </row>
-    <row r="390" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E390" s="41"/>
       <c r="F390" s="41"/>
     </row>
-    <row r="391" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E391" s="41"/>
       <c r="F391" s="41"/>
     </row>
-    <row r="392" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E392" s="41"/>
       <c r="F392" s="41"/>
     </row>
-    <row r="393" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E393" s="41"/>
       <c r="F393" s="41"/>
     </row>
-    <row r="394" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E394" s="41"/>
       <c r="F394" s="41"/>
     </row>
-    <row r="395" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E395" s="41"/>
       <c r="F395" s="41"/>
     </row>
-    <row r="396" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E396" s="41"/>
       <c r="F396" s="41"/>
     </row>
-    <row r="397" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E397" s="41"/>
       <c r="F397" s="41"/>
     </row>
-    <row r="398" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E398" s="41"/>
       <c r="F398" s="41"/>
     </row>
-    <row r="399" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E399" s="41"/>
       <c r="F399" s="41"/>
     </row>
-    <row r="400" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E400" s="41"/>
       <c r="F400" s="41"/>
     </row>
-    <row r="401" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E401" s="41"/>
       <c r="F401" s="41"/>
     </row>
-    <row r="402" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E402" s="41"/>
       <c r="F402" s="41"/>
     </row>
-    <row r="403" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E403" s="41"/>
       <c r="F403" s="41"/>
     </row>
-    <row r="404" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E404" s="41"/>
       <c r="F404" s="41"/>
     </row>
-    <row r="405" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E405" s="41"/>
       <c r="F405" s="41"/>
     </row>
-    <row r="406" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E406" s="41"/>
       <c r="F406" s="41"/>
     </row>
-    <row r="407" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E407" s="41"/>
       <c r="F407" s="41"/>
     </row>
-    <row r="408" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E408" s="41"/>
       <c r="F408" s="41"/>
     </row>
-    <row r="409" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E409" s="41"/>
       <c r="F409" s="41"/>
     </row>
-    <row r="410" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E410" s="41"/>
       <c r="F410" s="41"/>
     </row>
-    <row r="411" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E411" s="41"/>
       <c r="F411" s="41"/>
     </row>
-    <row r="412" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E412" s="41"/>
       <c r="F412" s="41"/>
     </row>
-    <row r="413" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E413" s="41"/>
       <c r="F413" s="41"/>
     </row>
-    <row r="414" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E414" s="41"/>
       <c r="F414" s="41"/>
     </row>
-    <row r="415" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E415" s="41"/>
       <c r="F415" s="41"/>
     </row>
-    <row r="416" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E416" s="41"/>
       <c r="F416" s="41"/>
     </row>
-    <row r="417" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E417" s="41"/>
       <c r="F417" s="41"/>
     </row>
-    <row r="418" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E418" s="41"/>
       <c r="F418" s="41"/>
     </row>
-    <row r="419" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E419" s="41"/>
       <c r="F419" s="41"/>
     </row>
-    <row r="420" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E420" s="41"/>
       <c r="F420" s="41"/>
     </row>
-    <row r="421" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E421" s="41"/>
       <c r="F421" s="41"/>
     </row>
-    <row r="422" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E422" s="41"/>
       <c r="F422" s="41"/>
     </row>
-    <row r="423" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E423" s="41"/>
       <c r="F423" s="41"/>
     </row>
-    <row r="424" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E424" s="41"/>
       <c r="F424" s="41"/>
     </row>
-    <row r="425" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E425" s="41"/>
       <c r="F425" s="41"/>
     </row>
-    <row r="426" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E426" s="41"/>
       <c r="F426" s="41"/>
     </row>
-    <row r="427" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E427" s="41"/>
       <c r="F427" s="41"/>
     </row>
-    <row r="428" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E428" s="41"/>
       <c r="F428" s="41"/>
     </row>
-    <row r="429" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E429" s="41"/>
       <c r="F429" s="41"/>
     </row>
-    <row r="430" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E430" s="41"/>
       <c r="F430" s="41"/>
     </row>
-    <row r="431" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E431" s="41"/>
       <c r="F431" s="41"/>
     </row>
-    <row r="432" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E432" s="41"/>
       <c r="F432" s="41"/>
     </row>
-    <row r="433" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E433" s="41"/>
       <c r="F433" s="41"/>
     </row>
-    <row r="434" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E434" s="41"/>
       <c r="F434" s="41"/>
     </row>
-    <row r="435" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E435" s="41"/>
       <c r="F435" s="41"/>
     </row>
-    <row r="436" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E436" s="41"/>
       <c r="F436" s="41"/>
     </row>
-    <row r="437" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E437" s="41"/>
       <c r="F437" s="41"/>
     </row>
-    <row r="438" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E438" s="41"/>
       <c r="F438" s="41"/>
     </row>
-    <row r="439" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E439" s="41"/>
       <c r="F439" s="41"/>
     </row>
-    <row r="440" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E440" s="41"/>
       <c r="F440" s="41"/>
     </row>
-    <row r="441" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E441" s="41"/>
       <c r="F441" s="41"/>
     </row>
-    <row r="442" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E442" s="41"/>
       <c r="F442" s="41"/>
     </row>
-    <row r="443" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E443" s="41"/>
       <c r="F443" s="41"/>
     </row>
-    <row r="444" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E444" s="41"/>
       <c r="F444" s="41"/>
     </row>
-    <row r="445" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E445" s="41"/>
       <c r="F445" s="41"/>
     </row>
-    <row r="446" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E446" s="41"/>
       <c r="F446" s="41"/>
     </row>
-    <row r="447" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E447" s="41"/>
       <c r="F447" s="41"/>
     </row>
-    <row r="448" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E448" s="41"/>
       <c r="F448" s="41"/>
     </row>
-    <row r="449" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E449" s="41"/>
       <c r="F449" s="41"/>
     </row>
-    <row r="450" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E450" s="41"/>
       <c r="F450" s="41"/>
     </row>
-    <row r="451" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E451" s="41"/>
       <c r="F451" s="41"/>
     </row>
-    <row r="452" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E452" s="41"/>
       <c r="F452" s="41"/>
     </row>
-    <row r="453" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E453" s="41"/>
       <c r="F453" s="41"/>
     </row>
-    <row r="454" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E454" s="41"/>
       <c r="F454" s="41"/>
     </row>
-    <row r="455" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E455" s="41"/>
       <c r="F455" s="41"/>
     </row>
-    <row r="456" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E456" s="41"/>
       <c r="F456" s="41"/>
     </row>
-    <row r="457" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E457" s="41"/>
       <c r="F457" s="41"/>
     </row>
-    <row r="458" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E458" s="41"/>
       <c r="F458" s="41"/>
     </row>
-    <row r="459" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E459" s="41"/>
       <c r="F459" s="41"/>
     </row>
-    <row r="460" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E460" s="41"/>
       <c r="F460" s="41"/>
     </row>
-    <row r="461" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E461" s="41"/>
       <c r="F461" s="41"/>
     </row>
-    <row r="462" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E462" s="41"/>
       <c r="F462" s="41"/>
     </row>
-    <row r="463" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E463" s="41"/>
       <c r="F463" s="41"/>
     </row>
-    <row r="464" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E464" s="41"/>
       <c r="F464" s="41"/>
     </row>
-    <row r="465" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E465" s="41"/>
       <c r="F465" s="41"/>
     </row>
-    <row r="466" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E466" s="41"/>
       <c r="F466" s="41"/>
     </row>
-    <row r="467" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E467" s="41"/>
       <c r="F467" s="41"/>
     </row>
-    <row r="468" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E468" s="41"/>
       <c r="F468" s="41"/>
     </row>
-    <row r="469" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E469" s="41"/>
       <c r="F469" s="41"/>
     </row>
-    <row r="470" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E470" s="41"/>
       <c r="F470" s="41"/>
     </row>
-    <row r="471" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E471" s="41"/>
       <c r="F471" s="41"/>
     </row>
-    <row r="472" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E472" s="41"/>
       <c r="F472" s="41"/>
     </row>
-    <row r="473" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E473" s="41"/>
       <c r="F473" s="41"/>
     </row>
-    <row r="474" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E474" s="41"/>
       <c r="F474" s="41"/>
     </row>
-    <row r="475" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E475" s="41"/>
       <c r="F475" s="41"/>
     </row>
-    <row r="476" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E476" s="41"/>
       <c r="F476" s="41"/>
     </row>
-    <row r="477" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E477" s="41"/>
       <c r="F477" s="41"/>
     </row>
-    <row r="478" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E478" s="41"/>
       <c r="F478" s="41"/>
     </row>
-    <row r="479" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E479" s="41"/>
       <c r="F479" s="41"/>
     </row>
-    <row r="480" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E480" s="41"/>
       <c r="F480" s="41"/>
     </row>
-    <row r="481" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E481" s="41"/>
       <c r="F481" s="41"/>
     </row>
-    <row r="482" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E482" s="41"/>
       <c r="F482" s="41"/>
     </row>
-    <row r="483" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E483" s="41"/>
       <c r="F483" s="41"/>
     </row>
-    <row r="484" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E484" s="41"/>
       <c r="F484" s="41"/>
     </row>
-    <row r="485" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E485" s="41"/>
       <c r="F485" s="41"/>
     </row>
-    <row r="486" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E486" s="41"/>
       <c r="F486" s="41"/>
     </row>
-    <row r="487" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E487" s="41"/>
       <c r="F487" s="41"/>
     </row>
-    <row r="488" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E488" s="41"/>
       <c r="F488" s="41"/>
     </row>
-    <row r="489" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E489" s="41"/>
       <c r="F489" s="41"/>
     </row>
-    <row r="490" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E490" s="41"/>
       <c r="F490" s="41"/>
     </row>
-    <row r="491" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E491" s="41"/>
       <c r="F491" s="41"/>
     </row>
-    <row r="492" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E492" s="41"/>
       <c r="F492" s="41"/>
     </row>
-    <row r="493" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E493" s="41"/>
       <c r="F493" s="41"/>
     </row>
-    <row r="494" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E494" s="41"/>
       <c r="F494" s="41"/>
     </row>
-    <row r="495" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E495" s="41"/>
       <c r="F495" s="41"/>
     </row>
-    <row r="496" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E496" s="41"/>
       <c r="F496" s="41"/>
     </row>
-    <row r="497" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E497" s="41"/>
       <c r="F497" s="41"/>
     </row>
-    <row r="498" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E498" s="41"/>
       <c r="F498" s="41"/>
     </row>
-    <row r="499" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E499" s="41"/>
       <c r="F499" s="41"/>
     </row>
-    <row r="500" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E500" s="41"/>
       <c r="F500" s="41"/>
     </row>
-    <row r="501" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E501" s="41"/>
       <c r="F501" s="41"/>
     </row>
-    <row r="502" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E502" s="41"/>
       <c r="F502" s="41"/>
     </row>
-    <row r="503" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E503" s="41"/>
       <c r="F503" s="41"/>
     </row>
-    <row r="504" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E504" s="41"/>
       <c r="F504" s="41"/>
     </row>
-    <row r="505" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E505" s="41"/>
       <c r="F505" s="41"/>
     </row>
-    <row r="506" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E506" s="41"/>
       <c r="F506" s="41"/>
     </row>
-    <row r="507" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E507" s="41"/>
       <c r="F507" s="41"/>
     </row>
-    <row r="508" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E508" s="41"/>
       <c r="F508" s="41"/>
     </row>
-    <row r="509" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E509" s="41"/>
       <c r="F509" s="41"/>
     </row>
-    <row r="510" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E510" s="41"/>
       <c r="F510" s="41"/>
     </row>
-    <row r="511" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E511" s="41"/>
       <c r="F511" s="41"/>
     </row>
-    <row r="512" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E512" s="41"/>
       <c r="F512" s="41"/>
     </row>
-    <row r="513" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E513" s="41"/>
       <c r="F513" s="41"/>
     </row>
-    <row r="514" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E514" s="41"/>
       <c r="F514" s="41"/>
     </row>
-    <row r="515" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E515" s="41"/>
       <c r="F515" s="41"/>
     </row>
-    <row r="516" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E516" s="41"/>
       <c r="F516" s="41"/>
     </row>
-    <row r="517" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E517" s="41"/>
       <c r="F517" s="41"/>
     </row>
-    <row r="518" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E518" s="41"/>
       <c r="F518" s="41"/>
     </row>
-    <row r="519" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E519" s="41"/>
       <c r="F519" s="41"/>
     </row>
-    <row r="520" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E520" s="41"/>
       <c r="F520" s="41"/>
     </row>
-    <row r="521" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E521" s="41"/>
       <c r="F521" s="41"/>
     </row>
-    <row r="522" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E522" s="41"/>
       <c r="F522" s="41"/>
     </row>
-    <row r="523" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E523" s="41"/>
       <c r="F523" s="41"/>
     </row>
-    <row r="524" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E524" s="41"/>
       <c r="F524" s="41"/>
     </row>
-    <row r="525" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E525" s="41"/>
       <c r="F525" s="41"/>
     </row>
-    <row r="526" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E526" s="41"/>
       <c r="F526" s="41"/>
     </row>
-    <row r="527" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E527" s="41"/>
       <c r="F527" s="41"/>
     </row>
-    <row r="528" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E528" s="41"/>
       <c r="F528" s="41"/>
     </row>
-    <row r="529" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E529" s="41"/>
       <c r="F529" s="41"/>
     </row>
-    <row r="530" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E530" s="41"/>
       <c r="F530" s="41"/>
     </row>
-    <row r="531" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E531" s="41"/>
       <c r="F531" s="41"/>
     </row>
-    <row r="532" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E532" s="41"/>
       <c r="F532" s="41"/>
     </row>
-    <row r="533" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E533" s="41"/>
       <c r="F533" s="41"/>
     </row>
-    <row r="534" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E534" s="41"/>
       <c r="F534" s="41"/>
     </row>
-    <row r="535" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E535" s="41"/>
       <c r="F535" s="41"/>
     </row>
-    <row r="536" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E536" s="41"/>
       <c r="F536" s="41"/>
     </row>
-    <row r="537" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E537" s="41"/>
       <c r="F537" s="41"/>
     </row>
-    <row r="538" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E538" s="41"/>
       <c r="F538" s="41"/>
     </row>
-    <row r="539" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E539" s="41"/>
       <c r="F539" s="41"/>
     </row>
-    <row r="540" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E540" s="41"/>
       <c r="F540" s="41"/>
     </row>
-    <row r="541" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E541" s="41"/>
       <c r="F541" s="41"/>
     </row>
-    <row r="542" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E542" s="41"/>
       <c r="F542" s="41"/>
     </row>
-    <row r="543" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E543" s="41"/>
       <c r="F543" s="41"/>
     </row>
-    <row r="544" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E544" s="41"/>
       <c r="F544" s="41"/>
     </row>
-    <row r="545" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E545" s="41"/>
       <c r="F545" s="41"/>
     </row>
-    <row r="546" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E546" s="41"/>
       <c r="F546" s="41"/>
     </row>
-    <row r="547" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E547" s="41"/>
       <c r="F547" s="41"/>
     </row>
-    <row r="548" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E548" s="41"/>
       <c r="F548" s="41"/>
     </row>
-    <row r="549" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E549" s="41"/>
       <c r="F549" s="41"/>
     </row>
-    <row r="550" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E550" s="41"/>
       <c r="F550" s="41"/>
     </row>
-    <row r="551" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E551" s="41"/>
       <c r="F551" s="41"/>
     </row>
-    <row r="552" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E552" s="41"/>
       <c r="F552" s="41"/>
     </row>
-    <row r="553" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E553" s="41"/>
       <c r="F553" s="41"/>
     </row>
-    <row r="554" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E554" s="41"/>
       <c r="F554" s="41"/>
     </row>
-    <row r="555" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E555" s="41"/>
       <c r="F555" s="41"/>
     </row>
-    <row r="556" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E556" s="41"/>
       <c r="F556" s="41"/>
     </row>
-    <row r="557" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E557" s="41"/>
       <c r="F557" s="41"/>
     </row>
-    <row r="558" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E558" s="41"/>
       <c r="F558" s="41"/>
     </row>
-    <row r="559" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E559" s="41"/>
       <c r="F559" s="41"/>
     </row>
-    <row r="560" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E560" s="41"/>
       <c r="F560" s="41"/>
     </row>
-    <row r="561" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E561" s="41"/>
       <c r="F561" s="41"/>
     </row>
-    <row r="562" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E562" s="41"/>
       <c r="F562" s="41"/>
     </row>
-    <row r="563" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E563" s="41"/>
       <c r="F563" s="41"/>
     </row>
-    <row r="564" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E564" s="41"/>
       <c r="F564" s="41"/>
     </row>
-    <row r="565" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E565" s="41"/>
       <c r="F565" s="41"/>
     </row>
-    <row r="566" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E566" s="41"/>
       <c r="F566" s="41"/>
     </row>
-    <row r="567" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E567" s="41"/>
       <c r="F567" s="41"/>
     </row>
-    <row r="568" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E568" s="41"/>
       <c r="F568" s="41"/>
     </row>
-    <row r="569" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E569" s="41"/>
       <c r="F569" s="41"/>
     </row>
-    <row r="570" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E570" s="41"/>
       <c r="F570" s="41"/>
     </row>
-    <row r="571" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E571" s="41"/>
       <c r="F571" s="41"/>
     </row>
-    <row r="572" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E572" s="41"/>
       <c r="F572" s="41"/>
     </row>
-    <row r="573" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E573" s="41"/>
       <c r="F573" s="41"/>
     </row>
-    <row r="574" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E574" s="41"/>
       <c r="F574" s="41"/>
     </row>
-    <row r="575" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E575" s="41"/>
       <c r="F575" s="41"/>
     </row>
-    <row r="576" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E576" s="41"/>
       <c r="F576" s="41"/>
     </row>
-    <row r="577" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E577" s="41"/>
       <c r="F577" s="41"/>
     </row>
-    <row r="578" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E578" s="41"/>
       <c r="F578" s="41"/>
     </row>
-    <row r="579" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E579" s="41"/>
       <c r="F579" s="41"/>
     </row>
-    <row r="580" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E580" s="41"/>
       <c r="F580" s="41"/>
     </row>
-    <row r="581" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E581" s="41"/>
       <c r="F581" s="41"/>
     </row>
-    <row r="582" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E582" s="41"/>
       <c r="F582" s="41"/>
     </row>
-    <row r="583" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E583" s="41"/>
       <c r="F583" s="41"/>
     </row>
-    <row r="584" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E584" s="41"/>
       <c r="F584" s="41"/>
     </row>
-    <row r="585" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E585" s="41"/>
       <c r="F585" s="41"/>
     </row>
-    <row r="586" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E586" s="41"/>
       <c r="F586" s="41"/>
     </row>
-    <row r="587" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E587" s="41"/>
       <c r="F587" s="41"/>
     </row>
-    <row r="588" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E588" s="41"/>
       <c r="F588" s="41"/>
     </row>
-    <row r="589" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E589" s="41"/>
       <c r="F589" s="41"/>
     </row>
-    <row r="590" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E590" s="41"/>
       <c r="F590" s="41"/>
     </row>
-    <row r="591" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E591" s="41"/>
       <c r="F591" s="41"/>
     </row>
-    <row r="592" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E592" s="41"/>
       <c r="F592" s="41"/>
     </row>
-    <row r="593" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E593" s="41"/>
       <c r="F593" s="41"/>
     </row>
-    <row r="594" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E594" s="41"/>
       <c r="F594" s="41"/>
     </row>
-    <row r="595" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E595" s="41"/>
       <c r="F595" s="41"/>
     </row>
-    <row r="596" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E596" s="41"/>
       <c r="F596" s="41"/>
     </row>
-    <row r="597" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E597" s="41"/>
       <c r="F597" s="41"/>
     </row>
-    <row r="598" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E598" s="41"/>
       <c r="F598" s="41"/>
     </row>
-    <row r="599" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E599" s="41"/>
       <c r="F599" s="41"/>
     </row>
-    <row r="600" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E600" s="41"/>
       <c r="F600" s="41"/>
     </row>
-    <row r="601" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E601" s="41"/>
       <c r="F601" s="41"/>
     </row>
-    <row r="602" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E602" s="41"/>
       <c r="F602" s="41"/>
     </row>
-    <row r="603" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E603" s="41"/>
       <c r="F603" s="41"/>
     </row>
-    <row r="604" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E604" s="41"/>
       <c r="F604" s="41"/>
     </row>
-    <row r="605" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E605" s="41"/>
       <c r="F605" s="41"/>
     </row>
-    <row r="606" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E606" s="41"/>
       <c r="F606" s="41"/>
     </row>
-    <row r="607" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E607" s="41"/>
       <c r="F607" s="41"/>
     </row>
-    <row r="608" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E608" s="41"/>
       <c r="F608" s="41"/>
     </row>
-    <row r="609" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E609" s="41"/>
       <c r="F609" s="41"/>
     </row>
-    <row r="610" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E610" s="41"/>
       <c r="F610" s="41"/>
     </row>
-    <row r="611" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E611" s="41"/>
       <c r="F611" s="41"/>
     </row>
-    <row r="612" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E612" s="41"/>
       <c r="F612" s="41"/>
     </row>
-    <row r="613" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E613" s="41"/>
       <c r="F613" s="41"/>
     </row>
-    <row r="614" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E614" s="41"/>
       <c r="F614" s="41"/>
     </row>
-    <row r="615" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E615" s="41"/>
       <c r="F615" s="41"/>
     </row>
-    <row r="616" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E616" s="41"/>
       <c r="F616" s="41"/>
     </row>
-    <row r="617" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E617" s="41"/>
       <c r="F617" s="41"/>
     </row>
-    <row r="618" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E618" s="41"/>
       <c r="F618" s="41"/>
     </row>
-    <row r="619" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E619" s="41"/>
       <c r="F619" s="41"/>
     </row>
-    <row r="620" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E620" s="41"/>
       <c r="F620" s="41"/>
     </row>
-    <row r="621" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E621" s="41"/>
       <c r="F621" s="41"/>
     </row>
-    <row r="622" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E622" s="41"/>
       <c r="F622" s="41"/>
     </row>
-    <row r="623" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E623" s="41"/>
       <c r="F623" s="41"/>
     </row>
-    <row r="624" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E624" s="41"/>
       <c r="F624" s="41"/>
     </row>
-    <row r="625" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E625" s="41"/>
       <c r="F625" s="41"/>
     </row>
-    <row r="626" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E626" s="41"/>
       <c r="F626" s="41"/>
     </row>
-    <row r="627" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E627" s="41"/>
       <c r="F627" s="41"/>
     </row>
-    <row r="628" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E628" s="41"/>
       <c r="F628" s="41"/>
     </row>
-    <row r="629" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E629" s="41"/>
       <c r="F629" s="41"/>
     </row>
-    <row r="630" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E630" s="41"/>
       <c r="F630" s="41"/>
     </row>
-    <row r="631" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="631" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E631" s="41"/>
       <c r="F631" s="41"/>
     </row>
-    <row r="632" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E632" s="41"/>
       <c r="F632" s="41"/>
     </row>
-    <row r="633" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E633" s="41"/>
       <c r="F633" s="41"/>
     </row>
-    <row r="634" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E634" s="41"/>
       <c r="F634" s="41"/>
     </row>
-    <row r="635" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="635" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E635" s="41"/>
       <c r="F635" s="41"/>
     </row>
-    <row r="636" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E636" s="41"/>
       <c r="F636" s="41"/>
     </row>
-    <row r="637" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E637" s="41"/>
       <c r="F637" s="41"/>
     </row>
-    <row r="638" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E638" s="41"/>
       <c r="F638" s="41"/>
     </row>
@@ -12294,9 +12294,9 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>136</v>
       </c>
@@ -12364,7 +12364,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="226" t="s">
         <v>460</v>
       </c>
@@ -12423,7 +12423,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="227"/>
       <c r="B3" t="s">
         <v>300</v>
@@ -12449,19 +12449,19 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" style="22" customWidth="1"/>
     <col min="2" max="2" width="12" style="37" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" customWidth="1"/>
-    <col min="5" max="7" width="32.5703125" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" customWidth="1"/>
+    <col min="5" max="7" width="32.5546875" customWidth="1"/>
+    <col min="8" max="8" width="37.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>136</v>
       </c>
@@ -12496,7 +12496,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="217" t="s">
         <v>121</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="217"/>
       <c r="B3" s="42" t="s">
         <v>306</v>
@@ -12552,7 +12552,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="217"/>
       <c r="B4" s="40" t="s">
         <v>307</v>
@@ -12573,7 +12573,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="217"/>
       <c r="B5" s="69" t="s">
         <v>308</v>
@@ -12589,7 +12589,7 @@
       <c r="I5" s="71"/>
       <c r="J5" s="71"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="217"/>
       <c r="B6" s="40" t="s">
         <v>310</v>
@@ -12610,7 +12610,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="217"/>
       <c r="B7" s="66" t="s">
         <v>320</v>
@@ -12631,7 +12631,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="217"/>
       <c r="B8" s="40" t="s">
         <v>311</v>
@@ -12664,7 +12664,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="217"/>
       <c r="B9" s="66" t="s">
         <v>312</v>
@@ -12694,7 +12694,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="217"/>
       <c r="B10" s="40" t="s">
         <v>313</v>
@@ -12724,7 +12724,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="217"/>
       <c r="B11" s="66" t="s">
         <v>305</v>
@@ -12733,7 +12733,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="217"/>
       <c r="B12" s="40" t="s">
         <v>321</v>
@@ -12742,7 +12742,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="218" t="s">
         <v>115</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="219"/>
       <c r="B14" s="48" t="s">
         <v>246</v>
@@ -12774,7 +12774,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="219"/>
       <c r="B15" s="49" t="s">
         <v>248</v>
@@ -12783,7 +12783,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="219"/>
       <c r="B16" s="48" t="s">
         <v>253</v>
@@ -12792,7 +12792,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="219"/>
       <c r="B17" s="50" t="s">
         <v>251</v>
@@ -12801,7 +12801,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="220" t="s">
         <v>116</v>
       </c>
@@ -12812,7 +12812,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="215"/>
       <c r="B19" s="52" t="s">
         <v>256</v>
@@ -12821,7 +12821,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="215"/>
       <c r="B20" s="48" t="s">
         <v>422</v>
@@ -12830,7 +12830,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="215"/>
       <c r="B21" s="53" t="s">
         <v>258</v>
@@ -12839,7 +12839,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="215"/>
       <c r="B22" s="52" t="s">
         <v>260</v>
@@ -12848,7 +12848,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="215"/>
       <c r="B23" s="54" t="s">
         <v>263</v>
@@ -12857,7 +12857,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="215"/>
       <c r="B24" s="52" t="s">
         <v>265</v>
@@ -12866,7 +12866,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="215"/>
       <c r="B25" s="54" t="s">
         <v>267</v>
@@ -12875,7 +12875,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="221" t="s">
         <v>117</v>
       </c>
@@ -12886,7 +12886,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="215"/>
       <c r="B27" s="54" t="s">
         <v>271</v>
@@ -12895,7 +12895,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="215"/>
       <c r="B28" s="56" t="s">
         <v>273</v>
@@ -12904,7 +12904,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="215"/>
       <c r="B29" s="54" t="s">
         <v>275</v>
@@ -12913,7 +12913,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="215"/>
       <c r="B30" s="56" t="s">
         <v>277</v>
@@ -12922,7 +12922,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="215"/>
       <c r="B31" s="54" t="s">
         <v>279</v>
@@ -12931,7 +12931,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="222" t="s">
         <v>118</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="222"/>
       <c r="B33" s="53" t="s">
         <v>285</v>
@@ -12951,14 +12951,14 @@
         <v>284</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="223"/>
       <c r="B34" s="59"/>
       <c r="C34" s="33" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="223"/>
       <c r="B35" s="59" t="s">
         <v>281</v>
@@ -12967,14 +12967,14 @@
         <v>280</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="223"/>
       <c r="B36" s="59"/>
       <c r="C36" s="33" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="224" t="s">
         <v>119</v>
       </c>
@@ -12985,7 +12985,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="225"/>
       <c r="B38" s="60" t="s">
         <v>291</v>
@@ -12994,7 +12994,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="225"/>
       <c r="B39" s="48" t="s">
         <v>293</v>
@@ -13003,7 +13003,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="225"/>
       <c r="B40" s="60" t="s">
         <v>295</v>
@@ -13012,7 +13012,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="214" t="s">
         <v>120</v>
       </c>
@@ -13021,7 +13021,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="215"/>
       <c r="B42" s="62" t="s">
         <v>287</v>
@@ -13030,35 +13030,35 @@
         <v>286</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="215"/>
       <c r="B43" s="50"/>
       <c r="C43" s="33" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="215"/>
       <c r="B44" s="50"/>
       <c r="C44" s="33" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="215"/>
       <c r="B45" s="50"/>
       <c r="C45" s="33" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="215"/>
       <c r="B46" s="50"/>
       <c r="C46" s="33" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="216" t="s">
         <v>333</v>
       </c>
@@ -13069,7 +13069,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="216"/>
       <c r="B48" s="63" t="s">
         <v>303</v>
@@ -13078,7 +13078,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="216"/>
       <c r="B49" s="37" t="s">
         <v>316</v>
@@ -13087,7 +13087,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="216"/>
       <c r="B50" s="63" t="s">
         <v>322</v>
@@ -13096,7 +13096,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="216"/>
       <c r="B51" s="37" t="s">
         <v>314</v>
@@ -13105,7 +13105,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="216"/>
       <c r="B52" s="64" t="s">
         <v>318</v>
@@ -13114,7 +13114,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="216"/>
       <c r="B53" s="64" t="s">
         <v>325</v>
@@ -13123,7 +13123,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="216"/>
       <c r="B54" s="64" t="s">
         <v>327</v>
@@ -13132,7 +13132,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="216"/>
       <c r="B55" s="64" t="s">
         <v>329</v>
@@ -13141,7 +13141,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="216"/>
       <c r="B56" s="64" t="s">
         <v>331</v>
